--- a/Test Data/CombinationMasterTD.xlsx
+++ b/Test Data/CombinationMasterTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinot\eclipse-workspace\IXPerformers\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1877E86-5149-44CD-BBB1-BB099428E4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E60C62-BC27-4747-83B3-488571F1CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C29C0C2D-BF4F-45A3-9CA5-4FA569C1DDDC}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>Exercise 5</t>
   </si>
   <si>
-    <t>pull ups spl</t>
+    <t>pull ups special</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/CombinationMasterTD.xlsx
+++ b/Test Data/CombinationMasterTD.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinot\eclipse-workspace\IXPerformers\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E60C62-BC27-4747-83B3-488571F1CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FD0C3-11B0-41CC-B6E7-47C4ECFF0A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C29C0C2D-BF4F-45A3-9CA5-4FA569C1DDDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{C29C0C2D-BF4F-45A3-9CA5-4FA569C1DDDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t xml:space="preserve">Combination name </t>
   </si>
@@ -88,9 +91,6 @@
     <t>Collaborate</t>
   </si>
   <si>
-    <t>pull ups new</t>
-  </si>
-  <si>
     <t>Exercise 1</t>
   </si>
   <si>
@@ -104,19 +104,134 @@
   </si>
   <si>
     <t>pull ups special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date </t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Exercise Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Focus Area</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Key Tips</t>
+  </si>
+  <si>
+    <t>Upload Image</t>
+  </si>
+  <si>
+    <t>Video URL</t>
+  </si>
+  <si>
+    <t>Lat Pushdown</t>
+  </si>
+  <si>
+    <t>workout</t>
+  </si>
+  <si>
+    <t>Warm Up</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>["Back", "Chest", "Joints"]</t>
+  </si>
+  <si>
+    <t>Purpose: Strengthens lats, traps, and rhomboids.</t>
+  </si>
+  <si>
+    <t>Focus on Form: Keep your back straight; avoid rounding your spine.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-Bar </t>
+  </si>
+  <si>
+    <t>["Calves", "Chest", "Joints"]</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Lat Pulldown</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Warm Down</t>
+  </si>
+  <si>
+    <t>T-Bar Row</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Player List</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Combination</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Vadivel</t>
+  </si>
+  <si>
+    <t>Arasan ,Vadivel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF191D23"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,9 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408F53EA-4F81-4483-81F4-3178CB0A73E2}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:K6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,162 +596,187 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.8356481481481483E-3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.5046296296296296E-3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>4.4560185185185182E-2</v>
-      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.1990740740740742E-3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.5625000000000001E-3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.6203703703703703E-3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.6203703703703703E-3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.5625000000000001E-3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.6203703703703703E-3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.1990740740740742E-3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.6203703703703703E-3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4.4560185185185182E-2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.1990740740740742E-3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8.4953703703703698E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.12789351851851852</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I7" s="1"/>
@@ -643,7 +785,7 @@
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE56DCB-8B64-4A0D-88DB-1134E4B2928A}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +850,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -766,7 +908,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -789,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -812,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -828,6 +970,215 @@
       </c>
       <c r="K6" s="1">
         <v>0.12789351851851852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A95A27A-7662-41FF-8400-645EE857B2F4}">
+  <dimension ref="K3:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E8D201-9E33-427B-8042-3B16D9847EFC}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.8356481481481483E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.5046296296296296E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4.4560185185185182E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45980</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.8356481481481483E-3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.5046296296296296E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.4560185185185182E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A4BD7-08AF-4345-A42B-6FA71C7E34CE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
